--- a/public/files/Behavior1_1.xlsx
+++ b/public/files/Behavior1_1.xlsx
@@ -638,7 +638,7 @@
   <dimension ref="A1:AP39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="L13" sqref="L12:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -938,32 +938,28 @@
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
       <c r="I7" s="1">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1">
-        <v>2</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="K7" s="1">
+        <v>111</v>
+      </c>
+      <c r="L7" s="1">
+        <v>222</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
